--- a/GSK Sales/input/MAPPER.xlsx
+++ b/GSK Sales/input/MAPPER.xlsx
@@ -1,340 +1,344 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazim\Mon Drive (nazim.benammar@gmail.com)\1 - Pro\Python\Projects\GSK\GSK Sales\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604D03F-CEC5-4A4A-ADC7-5D2FBDD68898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DESIGNATIONS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="COLUMNS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="METADATA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DESIGNATIONS" sheetId="1" r:id="rId1"/>
+    <sheet name="COLUMNS" sheetId="2" r:id="rId2"/>
+    <sheet name="METADATA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLUMNS!$G$1:$H$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DESIGNATIONS!$A$1:$C$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLUMNS!$G$1:$H$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">METADATA!$D$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DESIGNATIONS!$A$1:$C$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLUMNS!$G$1:$H$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">METADATA!$D$1:$F$27</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
-  <si>
-    <t xml:space="preserve">AT PHARMA DESIGNATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK DESIGNATION</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="198">
+  <si>
+    <t>AT PHARMA DESIGNATION</t>
+  </si>
+  <si>
+    <t>GSK DESIGNATION</t>
   </si>
   <si>
     <t>DESIGNATION</t>
   </si>
   <si>
-    <t xml:space="preserve">AUGMENTIN 100 MG F/30 NN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 30ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN Poudre pour suspension buvable 100mg/12,5mg Flacon de 60 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 100/12,5mg. FL/60ml.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 60ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN poudre pour solution buvable 100mg/12,5mg flacon de 30ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 100/12.5mg.NR.F/30ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN Poudre pour suspension buvable 1g/125mg Boite de 12 sachets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN sach 1g/125mg B/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 1G SCHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN SACH 1G/125MG B/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmentin sach 500/62,5mg B/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 500MG SCHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN POWDER 500MG/62.5MG X12_DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN Sach 500/62.5MG*12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVAMYS 120 Doses</t>
+    <t>AUGMENTIN 100 MG F/30 NN</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 30ML</t>
+  </si>
+  <si>
+    <t>AUGMENTIN Poudre pour suspension buvable 100mg/12,5mg Flacon de 60 ml</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 100/12,5mg. FL/60ml.</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 60ML</t>
+  </si>
+  <si>
+    <t>AUGMENTIN poudre pour solution buvable 100mg/12,5mg flacon de 30ml</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 100/12.5mg.NR.F/30ml</t>
+  </si>
+  <si>
+    <t>AUGMENTIN Poudre pour suspension buvable 1g/125mg Boite de 12 sachets</t>
+  </si>
+  <si>
+    <t>AUGMENTIN sach 1g/125mg B/12</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1G SCHT</t>
+  </si>
+  <si>
+    <t>AUGMENTIN SACH 1G/125MG B/12</t>
+  </si>
+  <si>
+    <t>Augmentin sach 500/62,5mg B/12</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 500MG SCHT</t>
+  </si>
+  <si>
+    <t>AUGMENTIN POWDER 500MG/62.5MG X12_DZ</t>
+  </si>
+  <si>
+    <t>AUGMENTIN Sach 500/62.5MG*12</t>
+  </si>
+  <si>
+    <t>AVAMYS 120 Doses</t>
   </si>
   <si>
     <t>AVAMYS</t>
   </si>
   <si>
-    <t xml:space="preserve">AVAMYS Suspension pour pulvérisation nasale 27,5 µg/pulvérisation flacon de 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVAMYS NASAL SPRAR 0.5% 1X120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACTROBAN OINTMENT 2% X15G</t>
+    <t>AVAMYS Suspension pour pulvérisation nasale 27,5 µg/pulvérisation flacon de 120</t>
+  </si>
+  <si>
+    <t>AVAMYS NASAL SPRAR 0.5% 1X120</t>
+  </si>
+  <si>
+    <t>BACTROBAN OINTMENT 2% X15G</t>
   </si>
   <si>
     <t>BACTROBAN</t>
   </si>
   <si>
-    <t xml:space="preserve">BECONASE 50æg.Susp.Nas. 100DZ</t>
+    <t>BECONASE 50æg.Susp.Nas. 100DZ</t>
   </si>
   <si>
     <t>BECONASE</t>
   </si>
   <si>
-    <t xml:space="preserve">CLAMOXYL 1G CP DISP B/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 1G B06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 1G. CP. Dispers. B/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 1G B14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL comprimé dispersible 1g Boite de 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 1g.Cp.dispers.B/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 250 MG / 5 ML Flacon de 60 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 250mg/5ml .Fl/60ml.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 250ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 500mg/5ml Flacon de 60 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL.500mg/5ml. Fl/60ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL 500ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deroxat comprimés pélliculés 20 mg Boite de 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEROXAT 20MG CP B/14</t>
+    <t>CLAMOXYL 1G CP DISP B/6</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 1G B06</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 1G. CP. Dispers. B/14</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 1G B14</t>
+  </si>
+  <si>
+    <t>CLAMOXYL comprimé dispersible 1g Boite de 6</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 1g.Cp.dispers.B/6</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 250 MG / 5 ML Flacon de 60 ml</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 250mg/5ml .Fl/60ml.</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 250ML</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 500mg/5ml Flacon de 60 ml</t>
+  </si>
+  <si>
+    <t>CLAMOXYL.500mg/5ml. Fl/60ml</t>
+  </si>
+  <si>
+    <t>CLAMOXYL 500ML</t>
+  </si>
+  <si>
+    <t>Deroxat comprimés pélliculés 20 mg Boite de 14</t>
+  </si>
+  <si>
+    <t>DEROXAT 20MG CP B/14</t>
   </si>
   <si>
     <t>DEROXAT</t>
   </si>
   <si>
-    <t xml:space="preserve">DEROXAT 20mg. CP.B/14.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXONASE 50æg.Spray Nas.120dz</t>
+    <t>DEROXAT 20mg. CP.B/14.</t>
+  </si>
+  <si>
+    <t>FLIXONASE 50æg.Spray Nas.120dz</t>
   </si>
   <si>
     <t>FLIXONASE</t>
   </si>
   <si>
-    <t xml:space="preserve">Flixotide 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 125µG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flixotide 250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 250µG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 50 SUSP P INH 50 µG/D F/120 D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 50µG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 50 µG / Dose flacon de 120 pulvérisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 50aeg.Spray Nas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE suspension pour inhalation buccale 125 µG / dose flacon de 120 pulvéri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE EVOHALER 125MCG 1X60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 250 µG / Dose flacon de 60 pulvérisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE EVOHALER 250MCG 1X60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIMAG 1,5.amp buv/10ml.B/10</t>
+    <t>Flixotide 125</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 125µG</t>
+  </si>
+  <si>
+    <t>Flixotide 250</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 250µG</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 50 SUSP P INH 50 µG/D F/120 D</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 50µG</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 50 µG / Dose flacon de 120 pulvérisation</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 50aeg.Spray Nas.</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE suspension pour inhalation buccale 125 µG / dose flacon de 120 pulvéri</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE EVOHALER 125MCG 1X60</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 250 µG / Dose flacon de 60 pulvérisation</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE EVOHALER 250MCG 1X60</t>
+  </si>
+  <si>
+    <t>PIMAG 1,5.amp buv/10ml.B/10</t>
   </si>
   <si>
     <t>PIMAG</t>
   </si>
   <si>
-    <t xml:space="preserve">SALBUMOL INJ 6FF CO FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALBUMOL INJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARGENOR 1g/5ml. AMP.BUV.B/20</t>
+    <t>SALBUMOL INJ 6FF CO FR</t>
+  </si>
+  <si>
+    <t>SALBUMOL INJ</t>
+  </si>
+  <si>
+    <t>SARGENOR 1g/5ml. AMP.BUV.B/20</t>
   </si>
   <si>
     <t>SARGENOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Seretide Diskus Poudre pour inhalation 100 µG / 50 µG Flacon de 60 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seretide Diskus Poudre pour inhalation 100 µG / 50 µG Flacon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 100/50æG.DISKUS.60DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seretide Diskus Poudre pour inhalation 250 µG / 50 µG Flacon de 60 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seretide Diskus Poudre pour inhalation 250 µG / 50 µG Flacon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 250/50æG.DISKUS.60DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE Poudre pour inhalation 500/50mcg Flacon de 60 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 50/500MCG-DISKUS 1x60D DZ/T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE Poudre pourSeretide Diskus Poudre pour inhalation 500µG/50µG Flacon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 500/50MCG-DISKUS 1x60D DZ/T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERETIDE 500/50æG.DISKUS.60DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTOLINE aérosol 100 µG / DOSE flacon de 200 doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTOLINE 100aeg134.Aeros.F/20</t>
+    <t>Seretide Diskus Poudre pour inhalation 100 µG / 50 µG Flacon de 60 doses</t>
+  </si>
+  <si>
+    <t>SERETIDE 100</t>
+  </si>
+  <si>
+    <t>Seretide Diskus Poudre pour inhalation 100 µG / 50 µG Flacon</t>
+  </si>
+  <si>
+    <t>SERETIDE 100/50æG.DISKUS.60DZ</t>
+  </si>
+  <si>
+    <t>Seretide Diskus Poudre pour inhalation 250 µG / 50 µG Flacon de 60 doses</t>
+  </si>
+  <si>
+    <t>SERETIDE 250</t>
+  </si>
+  <si>
+    <t>Seretide Diskus Poudre pour inhalation 250 µG / 50 µG Flacon</t>
+  </si>
+  <si>
+    <t>SERETIDE 250/50æG.DISKUS.60DZ</t>
+  </si>
+  <si>
+    <t>SERETIDE Poudre pour inhalation 500/50mcg Flacon de 60 doses</t>
+  </si>
+  <si>
+    <t>SERETIDE 50/500MCG-DISKUS 1x60D DZ/T</t>
+  </si>
+  <si>
+    <t>SERETIDE 500</t>
+  </si>
+  <si>
+    <t>SERETIDE Poudre pourSeretide Diskus Poudre pour inhalation 500µG/50µG Flacon</t>
+  </si>
+  <si>
+    <t>SERETIDE 500/50MCG-DISKUS 1x60D DZ/T</t>
+  </si>
+  <si>
+    <t>SERETIDE 500/50æG.DISKUS.60DZ</t>
+  </si>
+  <si>
+    <t>VENTOLINE aérosol 100 µG / DOSE flacon de 200 doses</t>
+  </si>
+  <si>
+    <t>VENTOLINE 100aeg134.Aeros.F/20</t>
   </si>
   <si>
     <t>VENTOLINE</t>
   </si>
   <si>
-    <t xml:space="preserve">VENTOLINE 100æg134.Aeros.F/200</t>
+    <t>VENTOLINE 100æg134.Aeros.F/200</t>
   </si>
   <si>
     <t>ZINNAT</t>
   </si>
   <si>
-    <t xml:space="preserve">ZINNAT 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINAT SUSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINNAT Granulés pour suspension buvable 125mg/5ml Flacon de 70ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINNAT 125mg.Susp.buv. 70ml.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINNAT 250MG CP B/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINNAT 250 CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 100mg/12,5mg Flacon de 60 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN  100mg/12,5mg flacon de 30 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN 1g/125mg Boite de 12 sachets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN SUSP GRAN 1G/125MG X12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN Poudre pour suspension buvable 500mg/62.5mg Boite de 12 sachets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGMENTIN  500mg/62.5mg Boite de 12 sachets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVAMYS NASAL SPRAY 0.05% 1X120D_DZ-GSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVAMYS 7,5 µg/pulvérisation flacon de 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL comprimé dispersible 1g Boite de 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL Poudre pour suspension buvable 250 MG / 5 ML Flacon de 60 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAMOXYL Poudre pour suspension buvable 500mg/5ml Flacon de 60 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE suspension pour inhalation buccale 50 µG / Dose flacon de 120 pulvéris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE 125 µG / dose flacon de 120 pulvérisations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE EVOHALER 125MCG 1X120D_DZ/T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIXOTIDE suspension pour inhalation buccale 250 µG / Dose flacon de 60 pulvéris</t>
+    <t>ZINNAT 125</t>
+  </si>
+  <si>
+    <t>ZINAT SUSP</t>
+  </si>
+  <si>
+    <t>ZINNAT Granulés pour suspension buvable 125mg/5ml Flacon de 70ml</t>
+  </si>
+  <si>
+    <t>ZINNAT 125mg.Susp.buv. 70ml.</t>
+  </si>
+  <si>
+    <t>ZINNAT 250MG CP B/14</t>
+  </si>
+  <si>
+    <t>ZINNAT 250 CP</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 100mg/12,5mg Flacon de 60 ml</t>
+  </si>
+  <si>
+    <t>AUGMENTIN  100mg/12,5mg flacon de 30 ml</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1g/125mg Boite de 12 sachets</t>
+  </si>
+  <si>
+    <t>AUGMENTIN SUSP GRAN 1G/125MG X12</t>
+  </si>
+  <si>
+    <t>AUGMENTIN Poudre pour suspension buvable 500mg/62.5mg Boite de 12 sachets</t>
+  </si>
+  <si>
+    <t>AUGMENTIN  500mg/62.5mg Boite de 12 sachets</t>
+  </si>
+  <si>
+    <t>AVAMYS NASAL SPRAY 0.05% 1X120D_DZ-GSK</t>
+  </si>
+  <si>
+    <t>AVAMYS 7,5 µg/pulvérisation flacon de 120</t>
+  </si>
+  <si>
+    <t>CLAMOXYL comprimé dispersible 1g Boite de 14</t>
+  </si>
+  <si>
+    <t>CLAMOXYL Poudre pour suspension buvable 250 MG / 5 ML Flacon de 60 ml</t>
+  </si>
+  <si>
+    <t>CLAMOXYL Poudre pour suspension buvable 500mg/5ml Flacon de 60 ml</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE suspension pour inhalation buccale 50 µG / Dose flacon de 120 pulvéris</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE 125 µG / dose flacon de 120 pulvérisations</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE EVOHALER 125MCG 1X120D_DZ/T</t>
+  </si>
+  <si>
+    <t>FLIXOTIDE suspension pour inhalation buccale 250 µG / Dose flacon de 60 pulvéris</t>
   </si>
   <si>
     <t>SOURCE</t>
   </si>
   <si>
-    <t xml:space="preserve">SOURCE SUBSET</t>
+    <t>SOURCE SUBSET</t>
   </si>
   <si>
     <t>ORDRE</t>
@@ -343,10 +347,10 @@
     <t>COLUMN</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW COLUMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENAMED COLUMNS</t>
+    <t>NEW COLUMN</t>
+  </si>
+  <si>
+    <t>RENAMED COLUMNS</t>
   </si>
   <si>
     <t>ACTION</t>
@@ -355,7 +359,7 @@
     <t>ATPHARMA</t>
   </si>
   <si>
-    <t xml:space="preserve">DETAIL VENTES</t>
+    <t>DETAIL VENTES</t>
   </si>
   <si>
     <t>NOM</t>
@@ -370,13 +374,13 @@
     <t>DATE_TRANS</t>
   </si>
   <si>
-    <t xml:space="preserve">RFC UNIT</t>
+    <t>RFC UNIT</t>
   </si>
   <si>
     <t>PRODUIT</t>
   </si>
   <si>
-    <t xml:space="preserve">RFC VALUE(GBP)</t>
+    <t>RFC VALUE(GBP)</t>
   </si>
   <si>
     <t>PEREMPTION</t>
@@ -394,31 +398,31 @@
     <t>W2</t>
   </si>
   <si>
-    <t xml:space="preserve">RESUME VENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numéro d'article</t>
+    <t>RESUME VENTES</t>
+  </si>
+  <si>
+    <t>Numéro d'article</t>
   </si>
   <si>
     <t>W3</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom du produit</t>
+    <t>Nom du produit</t>
   </si>
   <si>
     <t>W4</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantité début</t>
+    <t>Quantité début</t>
   </si>
   <si>
     <t>W5</t>
   </si>
   <si>
-    <t xml:space="preserve">entré local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALES UNIT</t>
+    <t>entré local</t>
+  </si>
+  <si>
+    <t>SALES UNIT</t>
   </si>
   <si>
     <t>diff</t>
@@ -427,10 +431,10 @@
     <t>sortie</t>
   </si>
   <si>
-    <t xml:space="preserve">SALES VALUE(GBP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantité finale</t>
+    <t>SALES VALUE(GBP)</t>
+  </si>
+  <si>
+    <t>Quantité finale</t>
   </si>
   <si>
     <t>ffill</t>
@@ -451,22 +455,22 @@
     <t>RFC</t>
   </si>
   <si>
-    <t xml:space="preserve">RFC (GBP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Quarantaine (Non libéré)</t>
+    <t>RFC (GBP)</t>
+  </si>
+  <si>
+    <t>Stock Quarantaine (Non libéré)</t>
   </si>
   <si>
     <t>Stock</t>
   </si>
   <si>
-    <t xml:space="preserve">Stock Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Vendable (Libéré)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no action</t>
+    <t>Stock Total</t>
+  </si>
+  <si>
+    <t>Stock Vendable (Libéré)</t>
+  </si>
+  <si>
+    <t>no action</t>
   </si>
   <si>
     <t>Livrée</t>
@@ -475,19 +479,19 @@
     <t>Réservé(Planifié)</t>
   </si>
   <si>
-    <t xml:space="preserve">Réservé (Planifié)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quarter sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL DISPONIBLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remain to achieve Month (Units)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD Sales (GBP)</t>
+    <t>Réservé (Planifié)</t>
+  </si>
+  <si>
+    <t>quarter sum</t>
+  </si>
+  <si>
+    <t>TOTAL DISPONIBLE</t>
+  </si>
+  <si>
+    <t>Remain to achieve Month (Units)</t>
+  </si>
+  <si>
+    <t>MTD Sales (GBP)</t>
   </si>
   <si>
     <t>Achievement</t>
@@ -496,58 +500,58 @@
     <t>sum</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 2</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>zero</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Planifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTHLY STOCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly Stock VS RFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourcentage (%)</t>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Total Planifié</t>
+  </si>
+  <si>
+    <t>MONTHLY STOCK</t>
+  </si>
+  <si>
+    <t>Monthly Stock VS RFC</t>
+  </si>
+  <si>
+    <t>Pourcentage (%)</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL DISPO</t>
+    <t>TOTAL DISPO</t>
   </si>
   <si>
     <t>SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">SKU ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU TYPE ORDER</t>
+    <t>SKU ORDER</t>
+  </si>
+  <si>
+    <t>SKU TYPE</t>
+  </si>
+  <si>
+    <t>SKU TYPE ORDER</t>
   </si>
   <si>
     <t>BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">BRAND ORDER</t>
+    <t>BRAND ORDER</t>
   </si>
   <si>
     <t>COLOR</t>
@@ -589,7 +593,7 @@
     <t>#E53935</t>
   </si>
   <si>
-    <t xml:space="preserve">BRAND - SKU</t>
+    <t>BRAND - SKU</t>
   </si>
   <si>
     <t>#1A237E</t>
@@ -608,9 +612,6 @@
   </si>
   <si>
     <t>SERETIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND </t>
   </si>
   <si>
     <t>#0288D1</t>
@@ -625,49 +626,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Manjari"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Manjari"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Manjari"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Manjari"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Manjari"/>
     </font>
@@ -694,7 +698,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -723,31 +726,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,295 +757,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1249,29 +968,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="71"/>
-    <col customWidth="1" min="2" max="2" width="37.140000000000001"/>
-    <col customWidth="1" min="3" max="3" width="23.710000000000001"/>
-    <col customWidth="1" min="4" max="6" width="10.710000000000001"/>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -1291,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1333,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1342,7 +1057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
@@ -1362,7 +1077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1373,7 +1088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -1382,7 +1097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
@@ -1391,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
@@ -1400,7 +1115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>28</v>
@@ -1409,7 +1124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
@@ -1431,7 +1146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -1453,7 +1168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>42</v>
@@ -1473,7 +1188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>44</v>
@@ -1482,7 +1197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>46</v>
@@ -1491,7 +1206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>48</v>
@@ -1500,7 +1215,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -1511,7 +1226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>52</v>
       </c>
@@ -1522,7 +1237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>54</v>
       </c>
@@ -1533,7 +1248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>56</v>
@@ -1542,7 +1257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>58</v>
@@ -1551,7 +1266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>60</v>
@@ -1560,7 +1275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>64</v>
       </c>
@@ -1580,7 +1295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -1589,7 +1304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
@@ -1600,7 +1315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>70</v>
       </c>
@@ -1611,7 +1326,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
@@ -1620,7 +1335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
@@ -1631,7 +1346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>75</v>
@@ -1640,7 +1355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>76</v>
       </c>
@@ -1651,7 +1366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>79</v>
@@ -1660,7 +1375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>80</v>
       </c>
@@ -1669,7 +1384,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>82</v>
       </c>
@@ -1678,7 +1393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>83</v>
       </c>
@@ -1689,7 +1404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
@@ -1697,7 +1412,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -1706,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>88</v>
       </c>
@@ -1715,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>89</v>
       </c>
@@ -1724,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
@@ -1733,7 +1448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>91</v>
       </c>
@@ -1742,7 +1457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>92</v>
       </c>
@@ -1751,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>93</v>
       </c>
@@ -1760,7 +1475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>94</v>
       </c>
@@ -1769,7 +1484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>95</v>
       </c>
@@ -1778,7 +1493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>96</v>
       </c>
@@ -1787,7 +1502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>97</v>
       </c>
@@ -1796,7 +1511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>40</v>
       </c>
@@ -1805,7 +1520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>98</v>
       </c>
@@ -1814,7 +1529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>99</v>
       </c>
@@ -1823,7 +1538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>100</v>
       </c>
@@ -1832,7 +1547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>101</v>
       </c>
@@ -1841,11 +1556,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -2782,42 +2497,31 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:C59">
-    <sortState ref="B1:B59">
-      <sortCondition descending="0" ref="B1:B59"/>
-    </sortState>
-  </autoFilter>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:C59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="11" width="11.8515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="11" width="17.57421875"/>
-    <col customWidth="1" min="3" max="3" style="11" width="14.43"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="11" width="31.57421875"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="11" width="20.57421875"/>
-    <col customWidth="1" min="6" max="6" style="11" width="10.710000000000001"/>
-    <col bestFit="1" min="7" max="7" style="11" width="21.00390625"/>
-    <col min="8" max="16384" style="11" width="14.43"/>
+    <col min="1" max="1" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21" style="11" bestFit="1"/>
+    <col min="8" max="16384" width="14.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5">
+    <row r="1" spans="1:8" ht="13.8">
       <c r="A1" s="12" t="s">
         <v>102</v>
       </c>
@@ -2840,7 +2544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" ht="19.5">
+    <row r="2" spans="1:8" ht="13.8">
       <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
@@ -2860,7 +2564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" ht="19.5">
+    <row r="3" spans="1:8" ht="13.8">
       <c r="A3" s="12" t="s">
         <v>109</v>
       </c>
@@ -2880,7 +2584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" ht="19.5">
+    <row r="4" spans="1:8" ht="13.8">
       <c r="A4" s="12" t="s">
         <v>109</v>
       </c>
@@ -2900,7 +2604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" ht="19.5">
+    <row r="5" spans="1:8" ht="13.8">
       <c r="A5" s="12" t="s">
         <v>109</v>
       </c>
@@ -2920,7 +2624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" ht="19.5">
+    <row r="6" spans="1:8" ht="13.8">
       <c r="A6" s="12" t="s">
         <v>109</v>
       </c>
@@ -2940,7 +2644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="19.5">
+    <row r="7" spans="1:8" ht="13.8">
       <c r="A7" s="12" t="s">
         <v>109</v>
       </c>
@@ -2960,7 +2664,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" ht="19.5">
+    <row r="8" spans="1:8" ht="13.8">
       <c r="A8" s="12" t="s">
         <v>109</v>
       </c>
@@ -2980,7 +2684,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="19.5">
+    <row r="9" spans="1:8" ht="13.8">
       <c r="A9" s="12" t="s">
         <v>109</v>
       </c>
@@ -3000,7 +2704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" ht="19.5">
+    <row r="10" spans="1:8" ht="13.8">
       <c r="A10" s="12" t="s">
         <v>109</v>
       </c>
@@ -3020,7 +2724,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" ht="19.5">
+    <row r="11" spans="1:8" ht="13.8">
       <c r="A11" s="12" t="s">
         <v>109</v>
       </c>
@@ -3040,7 +2744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" ht="19.5">
+    <row r="12" spans="1:8" ht="13.8">
       <c r="A12" s="12" t="s">
         <v>109</v>
       </c>
@@ -3060,7 +2764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" ht="19.5">
+    <row r="13" spans="1:8" ht="13.8">
       <c r="A13" s="12" t="s">
         <v>109</v>
       </c>
@@ -3080,7 +2784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" ht="19.5">
+    <row r="14" spans="1:8" ht="13.8">
       <c r="A14" s="12" t="s">
         <v>109</v>
       </c>
@@ -3103,7 +2807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" ht="19.5">
+    <row r="15" spans="1:8" ht="13.8">
       <c r="A15" s="12" t="s">
         <v>139</v>
       </c>
@@ -3117,7 +2821,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" ht="19.5">
+    <row r="16" spans="1:8" ht="13.8">
       <c r="A16" s="12" t="s">
         <v>139</v>
       </c>
@@ -3131,7 +2835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" ht="19.5">
+    <row r="17" spans="1:8" ht="13.8">
       <c r="A17" s="12" t="s">
         <v>139</v>
       </c>
@@ -3145,7 +2849,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" ht="19.5">
+    <row r="18" spans="1:8" ht="13.8">
       <c r="A18" s="12" t="s">
         <v>139</v>
       </c>
@@ -3159,7 +2863,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" ht="19.5">
+    <row r="19" spans="1:8" ht="13.8">
       <c r="A19" s="12" t="s">
         <v>139</v>
       </c>
@@ -3176,7 +2880,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" ht="19.5">
+    <row r="20" spans="1:8" ht="13.8">
       <c r="A20" s="12" t="s">
         <v>139</v>
       </c>
@@ -3190,7 +2894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" ht="19.5">
+    <row r="21" spans="1:8" ht="13.8">
       <c r="A21" s="12" t="s">
         <v>139</v>
       </c>
@@ -3207,14 +2911,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" ht="19.5">
+    <row r="22" spans="1:8" ht="13.8">
       <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="13"/>
       <c r="G22" s="12" t="s">
         <v>112</v>
       </c>
@@ -3222,14 +2925,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" ht="19.5">
+    <row r="23" spans="1:8" ht="13.8">
       <c r="A23" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="13"/>
       <c r="G23" s="12" t="s">
         <v>115</v>
       </c>
@@ -3237,7 +2939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" ht="19.5">
+    <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="12" t="s">
         <v>139</v>
       </c>
@@ -3254,14 +2956,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" ht="19.5">
+    <row r="25" spans="1:8" ht="13.8">
       <c r="A25" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>150</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -3271,7 +2973,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" ht="19.5">
+    <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="12" t="s">
         <v>139</v>
       </c>
@@ -3285,7 +2987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" ht="19.5">
+    <row r="27" spans="1:8" ht="13.8">
       <c r="A27" s="12" t="s">
         <v>139</v>
       </c>
@@ -3299,7 +3001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" ht="19.5">
+    <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="12" t="s">
         <v>139</v>
       </c>
@@ -3316,7 +3018,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" ht="19.5">
+    <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="12" t="s">
         <v>139</v>
       </c>
@@ -3330,7 +3032,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" ht="19.5">
+    <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="12" t="s">
         <v>139</v>
       </c>
@@ -3344,21 +3046,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" ht="19.5">
+    <row r="31" spans="1:8" ht="13.8">
       <c r="A31" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>150</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" ht="19.5">
+    <row r="32" spans="1:8" ht="13.8">
       <c r="A32" s="12" t="s">
         <v>139</v>
       </c>
@@ -3372,7 +3074,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" ht="19.5">
+    <row r="33" spans="1:8" ht="13.8">
       <c r="A33" s="12" t="s">
         <v>139</v>
       </c>
@@ -3386,21 +3088,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" ht="19.5">
+    <row r="34" spans="1:8" ht="13.8">
       <c r="A34" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>146</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" ht="19.5">
+    <row r="35" spans="1:8" ht="13.8">
       <c r="A35" s="12" t="s">
         <v>139</v>
       </c>
@@ -3414,7 +3116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" ht="19.5">
+    <row r="36" spans="1:8" ht="13.8">
       <c r="A36" s="12" t="s">
         <v>139</v>
       </c>
@@ -3428,7 +3130,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" ht="19.5">
+    <row r="37" spans="1:8" ht="13.8">
       <c r="A37" s="12" t="s">
         <v>139</v>
       </c>
@@ -3442,7 +3144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" ht="19.5">
+    <row r="38" spans="1:8" ht="13.8">
       <c r="A38" s="12" t="s">
         <v>139</v>
       </c>
@@ -3452,14 +3154,14 @@
       <c r="E38" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>150</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" ht="19.5">
+    <row r="39" spans="1:8" ht="13.8">
       <c r="A39" s="12" t="s">
         <v>139</v>
       </c>
@@ -3476,10 +3178,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+    <row r="40" spans="1:8" ht="14.25" customHeight="1">
       <c r="G40" s="12" t="s">
         <v>145</v>
       </c>
@@ -3487,16 +3186,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="D41" s="11"/>
-      <c r="G41" s="13" t="s">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1">
+      <c r="G41" s="11" t="s">
         <v>146</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1">
       <c r="G42" s="12" t="s">
         <v>152</v>
       </c>
@@ -3504,12 +3202,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -4463,800 +4161,727 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="G1:H35">
-    <sortState ref="H1:H35">
-      <sortCondition descending="0" ref="H1:H35"/>
-    </sortState>
-  </autoFilter>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="G1:H35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="15" width="22.8515625"/>
-    <col min="2" max="3" style="15" width="22.8515625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="15" width="17.8515625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="15" width="18.140625"/>
-    <col customWidth="1" min="6" max="6" style="15" width="15.00390625"/>
-    <col bestFit="1" min="7" max="7" style="15" width="13.28125"/>
-    <col bestFit="1" min="8" max="8" style="15" width="13.421875"/>
-    <col min="9" max="16384" style="15" width="9.140625"/>
+    <col min="1" max="1" width="22.88671875" style="14" bestFit="1"/>
+    <col min="2" max="2" width="22.88671875" style="17"/>
+    <col min="3" max="3" width="22.88671875" style="14"/>
+    <col min="4" max="4" width="17.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="14" bestFit="1"/>
+    <col min="8" max="8" width="13.44140625" style="14" bestFit="1"/>
+    <col min="9" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" ht="19.5">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" ht="13.8">
+      <c r="A2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="17">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" ht="19.5">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="13.8">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" ht="19.5">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="13.8">
+      <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" ht="19.5">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="13.8">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" ht="19.5">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="13.8">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" ht="19.5">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="13.8">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" ht="19.5">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="13.8">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" ht="19.5">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="13.8">
+      <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="17">
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" ht="19.5">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="13.8">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="17">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" ht="19.5">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:7" ht="13.8">
+      <c r="A11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>2</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>3</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" ht="19.5">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="13.8">
+      <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>4</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" ht="19.5">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:7" ht="13.8">
+      <c r="A13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" ht="19.5">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:7" ht="13.8">
+      <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>4</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" ht="18">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="18">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="18">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="18">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="17">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="E19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="17">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.8">
+      <c r="A28" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13.8">
+      <c r="A29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="14">
+        <v>4</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.8">
+      <c r="A30" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="17">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="14">
+        <v>4</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" ht="18">
-      <c r="A19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="17">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="C31" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="14">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" ht="18">
-      <c r="A20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="17">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="18">
-      <c r="A21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="15">
-        <v>1</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="17">
-        <v>2</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" ht="18">
-      <c r="A22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="15">
-        <v>1</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" ht="18">
-      <c r="A23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="17">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="18">
-      <c r="A24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="15">
-        <v>1</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="17">
-        <v>2</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="18">
-      <c r="A25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="15">
-        <v>1</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="17">
-        <v>2</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" ht="18">
-      <c r="A26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="15">
-        <v>1</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="C32" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="14">
+        <v>4</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F32" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="18">
-      <c r="A27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="15">
-        <v>2</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5">
-      <c r="A28" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="15">
-        <v>4</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" ht="19.5">
-      <c r="A29" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="17">
-        <v>4</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="15">
-        <v>2</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5">
-      <c r="A30" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="17">
-        <v>4</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="15">
-        <v>4</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" ht="18">
-      <c r="A31" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="17">
-        <v>4</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" ht="18">
-      <c r="A32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="17">
-        <v>4</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" ht="18">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" ht="14.25"/>
-    <row r="43" ht="14.25"/>
-    <row r="44" ht="14.25"/>
-    <row r="45" ht="14.25"/>
-    <row r="46" ht="14.25"/>
-    <row r="47" ht="14.25"/>
-    <row r="48" ht="14.25"/>
-    <row r="49" ht="14.25"/>
-    <row r="50" ht="14.25"/>
-    <row r="51" ht="14.25"/>
-    <row r="52" ht="14.25"/>
-    <row r="53" ht="14.25"/>
-    <row r="54" ht="14.25"/>
-    <row r="55" ht="14.25"/>
-    <row r="56" ht="14.25"/>
-    <row r="57" ht="14.25"/>
-    <row r="58" ht="14.25"/>
-    <row r="59" ht="14.25"/>
-    <row r="60" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="D1:F27">
-    <sortState ref="D1:D26">
-      <sortCondition descending="0" ref="D1:D26"/>
-    </sortState>
-  </autoFilter>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="D1:F27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>